--- a/data/trans_orig/P45C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D76176-4DD8-47FE-882A-2E87624C81EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E62B18-6CCE-4DD9-9B9C-7A9A2D9FFC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD63B2B3-57FA-4CF2-9D52-9A2DC87B1317}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6513972C-1685-4A29-B31B-947738C7882C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,2335 +77,2335 @@
     <t>87,64%</t>
   </si>
   <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>80,51%</t>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>Si sin ampollas</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>Sí con ampollas</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>89,43%</t>
   </si>
   <si>
-    <t>Si sin ampollas</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>Sí con ampollas</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>79,94%</t>
   </si>
   <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2015 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
   </si>
 </sst>
 </file>
@@ -2817,7 +2817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCBB76C-CCFC-415E-BD19-5D46B757D049}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6717B2EE-ED20-48A8-B78A-B3A58A935E85}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3356,10 +3356,10 @@
         <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>296</v>
@@ -3368,13 +3368,13 @@
         <v>297131</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>566</v>
@@ -3383,13 +3383,13 @@
         <v>575955</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3404,13 @@
         <v>40022</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -3419,13 +3419,13 @@
         <v>37281</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -3434,13 +3434,13 @@
         <v>77302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3470,13 +3470,13 @@
         <v>1000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3485,13 +3485,13 @@
         <v>1000</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,7 +3547,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3559,13 +3559,13 @@
         <v>277080</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>335</v>
@@ -3574,13 +3574,13 @@
         <v>324538</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>615</v>
@@ -3589,13 +3589,13 @@
         <v>601618</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3610,13 @@
         <v>71567</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -3625,13 +3625,13 @@
         <v>45078</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -3640,13 +3640,13 @@
         <v>116645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3661,13 @@
         <v>10024</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -3676,13 +3676,13 @@
         <v>1840</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -3691,13 +3691,13 @@
         <v>11864</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,7 +3753,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3765,13 +3765,13 @@
         <v>191915</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>184</v>
@@ -3780,13 +3780,13 @@
         <v>194194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>378</v>
@@ -3795,13 +3795,13 @@
         <v>386109</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3816,13 @@
         <v>10539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -3831,13 +3831,13 @@
         <v>13474</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -3846,13 +3846,13 @@
         <v>24012</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3867,13 @@
         <v>854</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3897,13 +3897,13 @@
         <v>854</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,7 +3959,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3971,13 +3971,13 @@
         <v>201617</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>225</v>
@@ -3986,13 +3986,13 @@
         <v>232401</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>425</v>
@@ -4001,13 +4001,13 @@
         <v>434019</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4022,13 @@
         <v>67282</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -4037,13 +4037,13 @@
         <v>43795</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -4052,13 +4052,13 @@
         <v>111077</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,7 +4079,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -4088,13 +4088,13 @@
         <v>1948</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4103,13 +4103,13 @@
         <v>3860</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,7 +4165,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4177,13 +4177,13 @@
         <v>534837</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H28" s="7">
         <v>557</v>
@@ -4192,13 +4192,13 @@
         <v>574632</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M28" s="7">
         <v>1075</v>
@@ -4207,13 +4207,13 @@
         <v>1109469</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4228,13 @@
         <v>65275</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -4243,13 +4243,13 @@
         <v>44595</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>112</v>
@@ -4258,13 +4258,13 @@
         <v>109870</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4279,13 @@
         <v>14914</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -4297,10 +4297,10 @@
         <v>59</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -4309,13 +4309,13 @@
         <v>32926</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,7 +4371,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4383,13 +4383,13 @@
         <v>657567</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>668</v>
@@ -4398,13 +4398,13 @@
         <v>703172</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>1315</v>
@@ -4413,13 +4413,13 @@
         <v>1360739</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4434,13 @@
         <v>65946</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H33" s="7">
         <v>52</v>
@@ -4449,13 +4449,13 @@
         <v>53857</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M33" s="7">
         <v>121</v>
@@ -4464,13 +4464,13 @@
         <v>119804</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4485,13 @@
         <v>12602</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -4500,13 +4500,13 @@
         <v>19264</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M34" s="7">
         <v>30</v>
@@ -4515,13 +4515,13 @@
         <v>31867</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4589,13 @@
         <v>2755397</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H36" s="7">
         <v>2868</v>
@@ -4604,13 +4604,13 @@
         <v>2952057</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M36" s="7">
         <v>5568</v>
@@ -4619,13 +4619,13 @@
         <v>5707455</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4640,13 @@
         <v>458326</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H37" s="7">
         <v>366</v>
@@ -4655,13 +4655,13 @@
         <v>362591</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M37" s="7">
         <v>820</v>
@@ -4673,10 +4673,10 @@
         <v>21</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4691,13 @@
         <v>55141</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H38" s="7">
         <v>55</v>
@@ -4706,13 +4706,13 @@
         <v>56351</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M38" s="7">
         <v>107</v>
@@ -4721,13 +4721,13 @@
         <v>111492</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,7 +4783,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +4807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2498D6C1-64D0-4CBA-87A6-28CAFF479640}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B88AE6-5C05-4067-A1C3-CC64B8A6F978}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4824,7 +4824,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4929,39 +4929,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,39 +4974,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,39 +5019,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,39 +5064,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5113,13 @@
         <v>438178</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>421</v>
@@ -5128,13 +5128,13 @@
         <v>462330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>827</v>
@@ -5143,13 +5143,13 @@
         <v>900508</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5164,13 @@
         <v>54470</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -5179,13 +5179,13 @@
         <v>49892</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M9" s="7">
         <v>101</v>
@@ -5194,13 +5194,13 @@
         <v>104362</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5215,13 @@
         <v>5809</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5230,13 +5230,13 @@
         <v>1109</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5245,13 +5245,13 @@
         <v>6918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5319,13 @@
         <v>225516</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H12" s="7">
         <v>262</v>
@@ -5334,13 +5334,13 @@
         <v>281908</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M12" s="7">
         <v>484</v>
@@ -5349,13 +5349,13 @@
         <v>507424</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5370,13 @@
         <v>96573</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5385,13 +5385,13 @@
         <v>45925</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -5400,13 +5400,13 @@
         <v>142498</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5421,13 @@
         <v>1022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -5436,13 +5436,13 @@
         <v>10903</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -5451,13 +5451,13 @@
         <v>11925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,7 +5513,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5525,13 +5525,13 @@
         <v>563945</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>556</v>
@@ -5540,13 +5540,13 @@
         <v>597987</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>1084</v>
@@ -5555,13 +5555,13 @@
         <v>1161932</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5576,13 @@
         <v>74408</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -5591,13 +5591,13 @@
         <v>49664</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -5606,13 +5606,13 @@
         <v>124072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5627,13 @@
         <v>25087</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -5642,13 +5642,13 @@
         <v>20054</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M18" s="7">
         <v>42</v>
@@ -5657,13 +5657,13 @@
         <v>45141</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>180</v>
+        <v>321</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,7 +5719,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5731,13 +5731,13 @@
         <v>189632</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -5746,13 +5746,13 @@
         <v>194303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>360</v>
@@ -5761,13 +5761,13 @@
         <v>383935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5782,13 @@
         <v>22986</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -5797,13 +5797,13 @@
         <v>22327</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -5812,13 +5812,13 @@
         <v>45313</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,7 +5839,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>207</v>
+        <v>340</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5848,13 +5848,13 @@
         <v>1964</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -5863,13 +5863,13 @@
         <v>1964</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,7 +5925,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5937,13 +5937,13 @@
         <v>181833</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H24" s="7">
         <v>206</v>
@@ -5952,13 +5952,13 @@
         <v>215036</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M24" s="7">
         <v>375</v>
@@ -5967,13 +5967,13 @@
         <v>396869</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +5988,13 @@
         <v>86308</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -6003,13 +6003,13 @@
         <v>60272</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -6018,13 +6018,13 @@
         <v>146580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6039,13 @@
         <v>3939</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6054,13 +6054,13 @@
         <v>4723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>260</v>
+        <v>364</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>358</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -6069,13 +6069,13 @@
         <v>8662</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,7 +6131,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6143,13 +6143,13 @@
         <v>490804</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H28" s="7">
         <v>494</v>
@@ -6158,13 +6158,13 @@
         <v>541826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M28" s="7">
         <v>943</v>
@@ -6173,13 +6173,13 @@
         <v>1032629</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,13 +6194,13 @@
         <v>162903</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H29" s="7">
         <v>128</v>
@@ -6209,13 +6209,13 @@
         <v>137527</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M29" s="7">
         <v>288</v>
@@ -6224,13 +6224,13 @@
         <v>300430</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>98</v>
+        <v>383</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,13 +6245,13 @@
         <v>6125</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -6260,13 +6260,13 @@
         <v>11326</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>382</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -6275,13 +6275,13 @@
         <v>17451</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>235</v>
+        <v>390</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,7 +6337,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6349,13 +6349,13 @@
         <v>711235</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H32" s="7">
         <v>691</v>
@@ -6364,13 +6364,13 @@
         <v>755348</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M32" s="7">
         <v>1343</v>
@@ -6379,13 +6379,13 @@
         <v>1466583</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,13 +6400,13 @@
         <v>56246</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="H33" s="7">
         <v>51</v>
@@ -6415,13 +6415,13 @@
         <v>52823</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M33" s="7">
         <v>105</v>
@@ -6430,13 +6430,13 @@
         <v>109068</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>173</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6451,13 @@
         <v>2029</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -6466,13 +6466,13 @@
         <v>6183</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -6481,13 +6481,13 @@
         <v>8213</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6555,13 @@
         <v>2801143</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="H36" s="7">
         <v>2817</v>
@@ -6570,28 +6570,28 @@
         <v>3048737</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M36" s="7">
         <v>5416</v>
       </c>
       <c r="N36" s="7">
-        <v>5849880</v>
+        <v>5849879</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6606,13 @@
         <v>553893</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="H37" s="7">
         <v>395</v>
@@ -6621,13 +6621,13 @@
         <v>418430</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="M37" s="7">
         <v>936</v>
@@ -6636,13 +6636,13 @@
         <v>972323</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6657,13 @@
         <v>44012</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>235</v>
+        <v>390</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>426</v>
+        <v>185</v>
       </c>
       <c r="H38" s="7">
         <v>53</v>
@@ -6672,13 +6672,13 @@
         <v>56260</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>427</v>
+        <v>290</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="M38" s="7">
         <v>95</v>
@@ -6687,13 +6687,13 @@
         <v>100272</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,7 +6735,7 @@
         <v>6447</v>
       </c>
       <c r="N39" s="7">
-        <v>6922475</v>
+        <v>6922474</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6773,7 +6773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F54FE7-6CD7-4A40-B272-06C310231EB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2043686B-2721-4A21-AF03-1CA2182B01D3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6790,7 +6790,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6897,13 +6897,13 @@
         <v>236327</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H4" s="7">
         <v>234</v>
@@ -6912,13 +6912,13 @@
         <v>245981</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>442</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M4" s="7">
         <v>449</v>
@@ -6927,13 +6927,13 @@
         <v>482308</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,13 +6948,13 @@
         <v>47711</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -6963,13 +6963,13 @@
         <v>34663</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M5" s="7">
         <v>78</v>
@@ -6978,13 +6978,13 @@
         <v>82374</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,13 +6999,13 @@
         <v>9723</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>458</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -7014,13 +7014,13 @@
         <v>7149</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -7029,13 +7029,13 @@
         <v>16872</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>234</v>
+        <v>458</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>455</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,13 +7103,13 @@
         <v>434808</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H8" s="7">
         <v>407</v>
@@ -7118,13 +7118,13 @@
         <v>444626</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="M8" s="7">
         <v>816</v>
@@ -7133,13 +7133,13 @@
         <v>879435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7154,13 +7154,13 @@
         <v>60711</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="H9" s="7">
         <v>69</v>
@@ -7169,13 +7169,13 @@
         <v>70341</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>172</v>
+        <v>474</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>128</v>
@@ -7184,13 +7184,13 @@
         <v>131052</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,13 +7205,13 @@
         <v>2858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>471</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>478</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -7220,13 +7220,13 @@
         <v>5923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>474</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -7235,13 +7235,13 @@
         <v>8781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,13 +7309,13 @@
         <v>286736</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H12" s="7">
         <v>286</v>
@@ -7324,13 +7324,13 @@
         <v>291675</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="M12" s="7">
         <v>589</v>
@@ -7339,13 +7339,13 @@
         <v>578411</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7360,13 +7360,13 @@
         <v>27785</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -7375,13 +7375,13 @@
         <v>41397</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -7390,13 +7390,13 @@
         <v>69182</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>25</v>
+        <v>496</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>490</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7411,13 @@
         <v>865</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7432,7 +7432,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7441,13 +7441,13 @@
         <v>865</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,7 +7503,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7515,13 +7515,13 @@
         <v>318329</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>313</v>
@@ -7530,13 +7530,13 @@
         <v>341385</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>435</v>
+        <v>506</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>499</v>
+        <v>330</v>
       </c>
       <c r="M16" s="7">
         <v>619</v>
@@ -7548,10 +7548,10 @@
         <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,13 +7566,13 @@
         <v>46846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -7581,13 +7581,13 @@
         <v>33807</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -7596,13 +7596,13 @@
         <v>80653</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>514</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,13 +7617,13 @@
         <v>3823</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>491</v>
+        <v>410</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -7632,13 +7632,13 @@
         <v>10182</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>511</v>
+        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -7647,13 +7647,13 @@
         <v>14005</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>514</v>
+        <v>139</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,7 +7709,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7721,13 +7721,13 @@
         <v>204004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
@@ -7736,13 +7736,13 @@
         <v>217760</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="M20" s="7">
         <v>427</v>
@@ -7751,13 +7751,13 @@
         <v>421764</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7772,13 @@
         <v>7217</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>533</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7787,13 +7787,13 @@
         <v>827</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>260</v>
+        <v>364</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>535</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -7802,13 +7802,13 @@
         <v>8044</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,7 +7829,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7844,7 +7844,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7859,7 +7859,7 @@
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,7 +7915,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7927,13 +7927,13 @@
         <v>256144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="H24" s="7">
         <v>251</v>
@@ -7942,13 +7942,13 @@
         <v>261070</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>318</v>
+        <v>544</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="M24" s="7">
         <v>503</v>
@@ -7957,13 +7957,13 @@
         <v>517214</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,13 +7978,13 @@
         <v>4000</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>538</v>
+        <v>364</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -7993,13 +7993,13 @@
         <v>6057</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>540</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -8008,13 +8008,13 @@
         <v>10057</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>543</v>
+        <v>318</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>544</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8029,13 @@
         <v>2008</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>545</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -8044,13 +8044,13 @@
         <v>4976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>548</v>
+        <v>268</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -8059,13 +8059,13 @@
         <v>6984</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>473</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8133,13 +8133,13 @@
         <v>551459</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="H28" s="7">
         <v>527</v>
@@ -8148,13 +8148,13 @@
         <v>567894</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="M28" s="7">
         <v>1017</v>
@@ -8163,13 +8163,13 @@
         <v>1119353</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,13 +8184,13 @@
         <v>84941</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="H29" s="7">
         <v>103</v>
@@ -8199,13 +8199,13 @@
         <v>104731</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>421</v>
+        <v>227</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="M29" s="7">
         <v>176</v>
@@ -8214,13 +8214,13 @@
         <v>189673</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,13 +8235,13 @@
         <v>7705</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -8250,13 +8250,13 @@
         <v>4911</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>86</v>
+        <v>578</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -8265,13 +8265,13 @@
         <v>12616</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>492</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,7 +8327,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8339,13 +8339,13 @@
         <v>624311</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="H32" s="7">
         <v>612</v>
@@ -8354,13 +8354,13 @@
         <v>670371</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="M32" s="7">
         <v>1213</v>
@@ -8369,13 +8369,13 @@
         <v>1294682</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8390,13 +8390,13 @@
         <v>143139</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="H33" s="7">
         <v>135</v>
@@ -8405,13 +8405,13 @@
         <v>146100</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="M33" s="7">
         <v>273</v>
@@ -8420,13 +8420,13 @@
         <v>289239</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8441,13 +8441,13 @@
         <v>3821</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -8459,10 +8459,10 @@
         <v>34</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>401</v>
+        <v>602</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>112</v>
+        <v>458</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -8471,13 +8471,13 @@
         <v>10203</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>284</v>
+        <v>604</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8545,13 +8545,13 @@
         <v>2912118</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>415</v>
+        <v>606</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="H36" s="7">
         <v>2852</v>
@@ -8560,13 +8560,13 @@
         <v>3040762</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="M36" s="7">
         <v>5633</v>
@@ -8575,13 +8575,13 @@
         <v>5952880</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>552</v>
+        <v>612</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>602</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8596,13 +8596,13 @@
         <v>422351</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="H37" s="7">
         <v>425</v>
@@ -8611,13 +8611,13 @@
         <v>437923</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>467</v>
+        <v>617</v>
       </c>
       <c r="M37" s="7">
         <v>820</v>
@@ -8626,13 +8626,13 @@
         <v>860274</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8647,13 +8647,13 @@
         <v>30803</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>610</v>
+        <v>411</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>83</v>
+        <v>620</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="H38" s="7">
         <v>38</v>
@@ -8662,13 +8662,13 @@
         <v>39523</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>541</v>
+        <v>622</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>537</v>
+        <v>623</v>
       </c>
       <c r="M38" s="7">
         <v>66</v>
@@ -8677,13 +8677,13 @@
         <v>70326</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>381</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>614</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8739,7 +8739,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -8763,7 +8763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6CEEE8-C5B1-425B-9341-DC8CFF7447F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5668F3FD-5325-4868-BF03-B965454D6D43}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8780,7 +8780,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8887,10 +8887,10 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -8902,13 +8902,13 @@
         <v>270906</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="M4" s="7">
         <v>868</v>
@@ -8917,13 +8917,13 @@
         <v>531203</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8944,7 +8944,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -8953,13 +8953,13 @@
         <v>497</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>621</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -8968,13 +8968,13 @@
         <v>497</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8995,7 +8995,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9093,13 +9093,13 @@
         <v>428968</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="H8" s="7">
         <v>613</v>
@@ -9108,13 +9108,13 @@
         <v>466789</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="M8" s="7">
         <v>938</v>
@@ -9123,13 +9123,13 @@
         <v>895758</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9144,13 +9144,13 @@
         <v>67450</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>102</v>
+        <v>642</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="H9" s="7">
         <v>70</v>
@@ -9159,13 +9159,13 @@
         <v>59991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="M9" s="7">
         <v>111</v>
@@ -9174,13 +9174,13 @@
         <v>127441</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9195,13 +9195,13 @@
         <v>21423</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -9210,13 +9210,13 @@
         <v>27135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -9225,13 +9225,13 @@
         <v>48559</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>646</v>
+        <v>552</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>544</v>
+        <v>656</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9299,13 +9299,13 @@
         <v>301605</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>649</v>
+        <v>486</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="H12" s="7">
         <v>506</v>
@@ -9314,13 +9314,13 @@
         <v>344916</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>661</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="M12" s="7">
         <v>844</v>
@@ -9329,13 +9329,13 @@
         <v>646521</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9350,13 +9350,13 @@
         <v>20002</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>658</v>
+        <v>494</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -9365,13 +9365,13 @@
         <v>26443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>660</v>
+        <v>461</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -9380,13 +9380,13 @@
         <v>46446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9407,7 +9407,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>665</v>
+        <v>480</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -9416,13 +9416,13 @@
         <v>1925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -9431,13 +9431,13 @@
         <v>1925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>602</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9493,7 +9493,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9505,13 +9505,13 @@
         <v>277171</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>678</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="H16" s="7">
         <v>533</v>
@@ -9520,13 +9520,13 @@
         <v>383033</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="M16" s="7">
         <v>786</v>
@@ -9535,13 +9535,13 @@
         <v>660205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9556,13 +9556,13 @@
         <v>39225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>678</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -9571,13 +9571,13 @@
         <v>44129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -9586,13 +9586,13 @@
         <v>83355</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>683</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9607,13 +9607,13 @@
         <v>3686</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>538</v>
+        <v>694</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>687</v>
+        <v>522</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -9622,13 +9622,13 @@
         <v>1393</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>688</v>
+        <v>604</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -9637,13 +9637,13 @@
         <v>5079</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>690</v>
+        <v>269</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9699,7 +9699,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9711,13 +9711,13 @@
         <v>185965</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>694</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>477</v>
@@ -9726,13 +9726,13 @@
         <v>221715</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="M20" s="7">
         <v>741</v>
@@ -9741,13 +9741,13 @@
         <v>407680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9762,13 +9762,13 @@
         <v>10783</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>702</v>
+        <v>404</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -9777,13 +9777,13 @@
         <v>9781</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>703</v>
+        <v>184</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>706</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -9792,13 +9792,13 @@
         <v>20564</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>705</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9819,7 +9819,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>548</v>
+        <v>710</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9834,7 +9834,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>538</v>
+        <v>694</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>711</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9905,7 +9905,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9917,13 +9917,13 @@
         <v>214169</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="H24" s="7">
         <v>331</v>
@@ -9932,13 +9932,13 @@
         <v>194971</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="M24" s="7">
         <v>627</v>
@@ -9947,13 +9947,13 @@
         <v>409140</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9968,13 +9968,13 @@
         <v>56012</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="H25" s="7">
         <v>118</v>
@@ -9983,13 +9983,13 @@
         <v>73446</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="M25" s="7">
         <v>183</v>
@@ -9998,13 +9998,13 @@
         <v>129458</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>154</v>
+        <v>728</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10019,13 +10019,13 @@
         <v>6191</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>725</v>
+        <v>236</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>726</v>
+        <v>139</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -10034,13 +10034,13 @@
         <v>7205</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>594</v>
+        <v>267</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -10049,13 +10049,13 @@
         <v>13396</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>551</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10111,7 +10111,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10123,13 +10123,13 @@
         <v>540606</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="H28" s="7">
         <v>855</v>
@@ -10138,13 +10138,13 @@
         <v>712481</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="M28" s="7">
         <v>1380</v>
@@ -10153,13 +10153,13 @@
         <v>1253087</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10174,13 +10174,13 @@
         <v>70668</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>153</v>
+        <v>741</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>739</v>
+        <v>434</v>
       </c>
       <c r="H29" s="7">
         <v>88</v>
@@ -10189,13 +10189,13 @@
         <v>77704</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="M29" s="7">
         <v>148</v>
@@ -10204,13 +10204,13 @@
         <v>148371</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10225,13 +10225,13 @@
         <v>14318</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -10240,13 +10240,13 @@
         <v>13858</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>748</v>
+        <v>343</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>113</v>
+        <v>751</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -10255,13 +10255,13 @@
         <v>28176</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>312</v>
+        <v>753</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>750</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10317,7 +10317,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10329,13 +10329,13 @@
         <v>596385</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="H32" s="7">
         <v>879</v>
@@ -10344,13 +10344,13 @@
         <v>708210</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="M32" s="7">
         <v>1417</v>
@@ -10359,13 +10359,13 @@
         <v>1304595</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10380,13 +10380,13 @@
         <v>251030</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="H33" s="7">
         <v>176</v>
@@ -10395,13 +10395,13 @@
         <v>153647</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>763</v>
+        <v>456</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="M33" s="7">
         <v>390</v>
@@ -10410,13 +10410,13 @@
         <v>404677</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10431,13 +10431,13 @@
         <v>12013</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>768</v>
+        <v>499</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>769</v>
+        <v>620</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -10446,13 +10446,13 @@
         <v>4294</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>471</v>
+        <v>578</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>614</v>
+        <v>770</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -10461,13 +10461,13 @@
         <v>16307</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>87</v>
+        <v>676</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>665</v>
+        <v>480</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10535,13 +10535,13 @@
         <v>2805166</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H36" s="7">
         <v>4731</v>
@@ -10550,13 +10550,13 @@
         <v>3303022</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M36" s="7">
         <v>7601</v>
@@ -10565,7 +10565,7 @@
         <v>6108188</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>775</v>
+        <v>224</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>776</v>
@@ -10592,7 +10592,7 @@
         <v>779</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>780</v>
+        <v>23</v>
       </c>
       <c r="H37" s="7">
         <v>557</v>
@@ -10601,13 +10601,13 @@
         <v>445638</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>782</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>783</v>
       </c>
       <c r="M37" s="7">
         <v>1006</v>
@@ -10616,7 +10616,7 @@
         <v>960809</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>174</v>
+        <v>783</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>784</v>
@@ -10637,10 +10637,10 @@
         <v>57631</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>428</v>
+        <v>86</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>786</v>
@@ -10655,10 +10655,10 @@
         <v>787</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>788</v>
+        <v>387</v>
       </c>
       <c r="M38" s="7">
         <v>120</v>
@@ -10667,13 +10667,13 @@
         <v>113441</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>210</v>
+        <v>788</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>235</v>
+        <v>390</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>312</v>
+        <v>753</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10729,7 +10729,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85556CE7-1950-4404-82F0-9C765C32C46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D88EA0A4-FD2E-4665-AEC8-7A27264DA4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6775436-19EC-44EB-B0B1-C6781908109F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C5E862C8-2156-44C5-A81B-B8F32849DF84}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="797">
   <si>
     <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -755,7 +755,79 @@
     <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>87,91%</t>
@@ -887,9 +959,6 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
     <t>3,22%</t>
   </si>
   <si>
@@ -908,1489 +977,1459 @@
     <t>3,21%</t>
   </si>
   <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
     <t>85,0%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
 </sst>
 </file>
@@ -2802,7 +2841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7ACE5B-F86A-4481-B392-9367A28A58BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3C05C7-E5A7-4C2E-AEB9-637C1075B238}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4792,7 +4831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8BB22F-5DC9-4E31-992C-51441BE9FC6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4971DA-61D1-42C7-BA90-8BAAA96B410A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4910,43 +4949,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="D4" s="7">
+        <v>240759</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>238</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>219</v>
+      </c>
+      <c r="I4" s="7">
+        <v>245706</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>450</v>
+      </c>
+      <c r="N4" s="7">
+        <v>486466</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,43 +5000,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="D5" s="7">
+        <v>44674</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I5" s="7">
+        <v>34274</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="N5" s="7">
+        <v>78948</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,43 +5051,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9305</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>238</v>
+        <v>85</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4017</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N6" s="7">
+        <v>13322</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,43 +5102,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294738</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="I7" s="7">
+        <v>283997</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>535</v>
+      </c>
+      <c r="N7" s="7">
+        <v>578735</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5161,13 @@
         <v>438178</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>421</v>
@@ -5113,13 +5176,13 @@
         <v>462330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>827</v>
@@ -5128,13 +5191,13 @@
         <v>900508</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5212,13 @@
         <v>54470</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>133</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -5164,13 +5227,13 @@
         <v>49892</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="M9" s="7">
         <v>101</v>
@@ -5179,13 +5242,13 @@
         <v>104362</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5263,13 @@
         <v>5809</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5215,13 +5278,13 @@
         <v>1109</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5230,13 +5293,13 @@
         <v>6918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5367,13 @@
         <v>225516</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="H12" s="7">
         <v>262</v>
@@ -5319,13 +5382,13 @@
         <v>281908</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="M12" s="7">
         <v>484</v>
@@ -5334,13 +5397,13 @@
         <v>507424</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5418,13 @@
         <v>96573</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5370,13 +5433,13 @@
         <v>45925</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -5385,13 +5448,13 @@
         <v>142498</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5469,13 @@
         <v>1022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -5421,13 +5484,13 @@
         <v>10903</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -5436,13 +5499,13 @@
         <v>11925</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,49 +5567,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>528</v>
+        <v>297</v>
       </c>
       <c r="D16" s="7">
-        <v>563945</v>
+        <v>323185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
-        <v>556</v>
+        <v>337</v>
       </c>
       <c r="I16" s="7">
-        <v>597987</v>
+        <v>352281</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="M16" s="7">
-        <v>1084</v>
+        <v>634</v>
       </c>
       <c r="N16" s="7">
-        <v>1161932</v>
+        <v>675466</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,49 +5618,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>74408</v>
+        <v>29734</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>49664</v>
+        <v>15390</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>124072</v>
+        <v>45124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,49 +5669,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>25087</v>
+        <v>15782</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="H18" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>20054</v>
+        <v>16037</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>309</v>
+        <v>63</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>310</v>
+        <v>159</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N18" s="7">
-        <v>45141</v>
+        <v>31819</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,10 +5720,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>621</v>
+        <v>339</v>
       </c>
       <c r="D19" s="7">
-        <v>663440</v>
+        <v>368702</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5672,10 +5735,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>619</v>
+        <v>366</v>
       </c>
       <c r="I19" s="7">
-        <v>667705</v>
+        <v>383708</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -5687,10 +5750,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>1240</v>
+        <v>705</v>
       </c>
       <c r="N19" s="7">
-        <v>1331145</v>
+        <v>752410</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5716,13 +5779,13 @@
         <v>189632</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>164</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -5731,13 +5794,13 @@
         <v>194303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="M20" s="7">
         <v>360</v>
@@ -5746,13 +5809,13 @@
         <v>383935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5830,13 @@
         <v>22986</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -5782,13 +5845,13 @@
         <v>22327</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -5797,13 +5860,13 @@
         <v>45313</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,7 +5887,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5833,13 +5896,13 @@
         <v>1964</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -5848,13 +5911,13 @@
         <v>1964</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5985,13 @@
         <v>181833</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="H24" s="7">
         <v>206</v>
@@ -5937,13 +6000,13 @@
         <v>215036</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="M24" s="7">
         <v>375</v>
@@ -5952,13 +6015,13 @@
         <v>396869</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +6036,13 @@
         <v>86308</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -5988,13 +6051,13 @@
         <v>60272</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -6003,13 +6066,13 @@
         <v>146580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,10 +6090,10 @@
         <v>208</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6042,10 +6105,10 @@
         <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -6054,13 +6117,13 @@
         <v>8662</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6191,13 @@
         <v>490804</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="H28" s="7">
         <v>494</v>
@@ -6143,13 +6206,13 @@
         <v>541826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="M28" s="7">
         <v>943</v>
@@ -6158,13 +6221,13 @@
         <v>1032629</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,13 +6242,13 @@
         <v>162903</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="H29" s="7">
         <v>128</v>
@@ -6194,13 +6257,13 @@
         <v>137527</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="M29" s="7">
         <v>288</v>
@@ -6209,13 +6272,13 @@
         <v>300430</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,10 +6296,10 @@
         <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -6245,10 +6308,10 @@
         <v>11326</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>184</v>
@@ -6260,13 +6323,13 @@
         <v>17451</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>383</v>
+        <v>261</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>385</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,13 +6397,13 @@
         <v>711235</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="H32" s="7">
         <v>691</v>
@@ -6349,13 +6412,13 @@
         <v>755348</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="M32" s="7">
         <v>1343</v>
@@ -6364,13 +6427,13 @@
         <v>1466583</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6448,13 @@
         <v>56246</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="H33" s="7">
         <v>51</v>
@@ -6403,10 +6466,10 @@
         <v>128</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="M33" s="7">
         <v>105</v>
@@ -6415,13 +6478,13 @@
         <v>109068</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6499,13 @@
         <v>2029</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -6451,10 +6514,10 @@
         <v>6183</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>112</v>
@@ -6466,13 +6529,13 @@
         <v>8213</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,16 +6600,16 @@
         <v>2599</v>
       </c>
       <c r="D36" s="7">
-        <v>2801143</v>
+        <v>2801142</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="H36" s="7">
         <v>2817</v>
@@ -6555,10 +6618,10 @@
         <v>3048737</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>216</v>
@@ -6570,13 +6633,13 @@
         <v>5849880</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6654,13 @@
         <v>553893</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="H37" s="7">
         <v>395</v>
@@ -6606,13 +6669,13 @@
         <v>418430</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="M37" s="7">
         <v>936</v>
@@ -6621,13 +6684,13 @@
         <v>972323</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6705,13 @@
         <v>44012</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>383</v>
+        <v>261</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H38" s="7">
         <v>53</v>
@@ -6657,13 +6720,13 @@
         <v>56260</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="M38" s="7">
         <v>95</v>
@@ -6675,10 +6738,10 @@
         <v>208</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,7 +6753,7 @@
         <v>3182</v>
       </c>
       <c r="D39" s="7">
-        <v>3399048</v>
+        <v>3399047</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -6758,7 +6821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E16F2B2-3984-4274-8C41-F3022966EDD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1445CBE-8FB4-4AFA-96D0-44B0767F0018}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6775,7 +6838,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6882,13 +6945,13 @@
         <v>236327</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="H4" s="7">
         <v>234</v>
@@ -6897,13 +6960,13 @@
         <v>245981</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="M4" s="7">
         <v>449</v>
@@ -6912,13 +6975,13 @@
         <v>482308</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,13 +6996,13 @@
         <v>47711</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -6948,13 +7011,13 @@
         <v>34663</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="M5" s="7">
         <v>78</v>
@@ -6963,13 +7026,13 @@
         <v>82374</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>447</v>
+        <v>323</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +7047,13 @@
         <v>9723</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -7005,7 +7068,7 @@
         <v>138</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -7014,13 +7077,13 @@
         <v>16872</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,13 +7151,13 @@
         <v>434808</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="H8" s="7">
         <v>407</v>
@@ -7103,13 +7166,13 @@
         <v>444626</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="M8" s="7">
         <v>816</v>
@@ -7118,13 +7181,13 @@
         <v>879435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,13 +7202,13 @@
         <v>60711</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="H9" s="7">
         <v>69</v>
@@ -7154,13 +7217,13 @@
         <v>70341</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="M9" s="7">
         <v>128</v>
@@ -7169,13 +7232,13 @@
         <v>131052</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>471</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7253,13 @@
         <v>2858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>310</v>
+        <v>491</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -7205,13 +7268,13 @@
         <v>5923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -7220,13 +7283,13 @@
         <v>8781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,13 +7357,13 @@
         <v>286736</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="H12" s="7">
         <v>286</v>
@@ -7312,10 +7375,10 @@
         <v>216</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="M12" s="7">
         <v>589</v>
@@ -7324,13 +7387,13 @@
         <v>578411</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,13 +7408,13 @@
         <v>27785</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -7360,13 +7423,13 @@
         <v>41397</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -7375,13 +7438,13 @@
         <v>69182</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7459,13 @@
         <v>865</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7417,7 +7480,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7426,13 +7489,13 @@
         <v>865</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,13 +7563,13 @@
         <v>318329</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="H16" s="7">
         <v>313</v>
@@ -7518,10 +7581,10 @@
         <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="M16" s="7">
         <v>619</v>
@@ -7533,10 +7596,10 @@
         <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7614,13 @@
         <v>46846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -7569,10 +7632,10 @@
         <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -7581,13 +7644,13 @@
         <v>80653</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,10 +7668,10 @@
         <v>138</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -7617,13 +7680,13 @@
         <v>10182</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -7632,7 +7695,7 @@
         <v>14005</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>138</v>
@@ -7706,13 +7769,13 @@
         <v>204004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
@@ -7721,13 +7784,13 @@
         <v>217760</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="M20" s="7">
         <v>427</v>
@@ -7736,13 +7799,13 @@
         <v>421764</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,13 +7820,13 @@
         <v>7217</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7772,13 +7835,13 @@
         <v>827</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -7787,13 +7850,13 @@
         <v>8044</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>87</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,7 +7877,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7829,7 +7892,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7844,7 +7907,7 @@
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7912,13 +7975,13 @@
         <v>256144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="H24" s="7">
         <v>251</v>
@@ -7927,13 +7990,13 @@
         <v>261070</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="M24" s="7">
         <v>503</v>
@@ -7942,13 +8005,13 @@
         <v>517214</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,13 +8026,13 @@
         <v>4000</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -7978,13 +8041,13 @@
         <v>6057</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -7993,13 +8056,13 @@
         <v>10057</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8077,13 @@
         <v>2008</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -8029,13 +8092,13 @@
         <v>4976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>310</v>
+        <v>491</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -8044,13 +8107,13 @@
         <v>6984</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8118,13 +8181,13 @@
         <v>551459</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="H28" s="7">
         <v>527</v>
@@ -8133,13 +8196,13 @@
         <v>567894</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="M28" s="7">
         <v>1017</v>
@@ -8148,13 +8211,13 @@
         <v>1119353</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,13 +8232,13 @@
         <v>84941</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="H29" s="7">
         <v>103</v>
@@ -8184,13 +8247,13 @@
         <v>104731</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="M29" s="7">
         <v>176</v>
@@ -8199,13 +8262,13 @@
         <v>189673</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,13 +8283,13 @@
         <v>7705</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>313</v>
+        <v>591</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -8235,13 +8298,13 @@
         <v>4911</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>160</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -8250,7 +8313,7 @@
         <v>12616</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>110</v>
@@ -8324,10 +8387,10 @@
         <v>624311</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>143</v>
@@ -8339,13 +8402,13 @@
         <v>670371</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="M32" s="7">
         <v>1213</v>
@@ -8354,13 +8417,13 @@
         <v>1294682</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,13 +8438,13 @@
         <v>143139</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="H33" s="7">
         <v>135</v>
@@ -8390,13 +8453,13 @@
         <v>146100</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="M33" s="7">
         <v>273</v>
@@ -8405,13 +8468,13 @@
         <v>289239</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8429,10 +8492,10 @@
         <v>110</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -8444,7 +8507,7 @@
         <v>34</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>56</v>
@@ -8456,13 +8519,13 @@
         <v>10203</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8530,13 +8593,13 @@
         <v>2912118</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="H36" s="7">
         <v>2852</v>
@@ -8545,10 +8608,10 @@
         <v>3040762</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>216</v>
@@ -8560,13 +8623,13 @@
         <v>5952880</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8584,10 +8647,10 @@
         <v>74</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="H37" s="7">
         <v>425</v>
@@ -8596,13 +8659,13 @@
         <v>437923</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="M37" s="7">
         <v>820</v>
@@ -8611,13 +8674,13 @@
         <v>860274</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,13 +8695,13 @@
         <v>30803</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>383</v>
+        <v>261</v>
       </c>
       <c r="H38" s="7">
         <v>38</v>
@@ -8647,13 +8710,13 @@
         <v>39523</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="M38" s="7">
         <v>66</v>
@@ -8662,13 +8725,13 @@
         <v>70326</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>383</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8748,7 +8811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234CBA7D-1D55-4C84-85BB-F7E7F3934335}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A0D656-9608-44EB-A3E1-B0B4412C42B6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8765,7 +8828,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8869,13 +8932,13 @@
         <v>331</v>
       </c>
       <c r="D4" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -8884,31 +8947,31 @@
         <v>537</v>
       </c>
       <c r="I4" s="7">
-        <v>270906</v>
+        <v>289122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="M4" s="7">
         <v>868</v>
       </c>
       <c r="N4" s="7">
-        <v>531203</v>
+        <v>600564</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,37 +8992,37 @@
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>572</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,7 +9043,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8995,7 +9058,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9010,7 +9073,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9022,7 +9085,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -9037,7 +9100,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -9052,7 +9115,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -9075,46 +9138,46 @@
         <v>325</v>
       </c>
       <c r="D8" s="7">
-        <v>428968</v>
+        <v>426284</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>620</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>221</v>
+        <v>577</v>
       </c>
       <c r="H8" s="7">
         <v>613</v>
       </c>
       <c r="I8" s="7">
-        <v>466790</v>
+        <v>433095</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="M8" s="7">
         <v>938</v>
       </c>
       <c r="N8" s="7">
-        <v>895758</v>
+        <v>859379</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>66</v>
+        <v>644</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9126,46 +9189,46 @@
         <v>41</v>
       </c>
       <c r="D9" s="7">
-        <v>67450</v>
+        <v>69283</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="H9" s="7">
         <v>70</v>
       </c>
       <c r="I9" s="7">
-        <v>59991</v>
+        <v>55689</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="M9" s="7">
         <v>111</v>
       </c>
       <c r="N9" s="7">
-        <v>127441</v>
+        <v>124972</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>300</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9177,46 +9240,46 @@
         <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>21423</v>
+        <v>21412</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>27135</v>
+        <v>25591</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>638</v>
+        <v>565</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>450</v>
+        <v>659</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>48559</v>
+        <v>47003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9228,7 +9291,7 @@
         <v>381</v>
       </c>
       <c r="D11" s="7">
-        <v>517841</v>
+        <v>516978</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -9243,7 +9306,7 @@
         <v>716</v>
       </c>
       <c r="I11" s="7">
-        <v>553917</v>
+        <v>514376</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -9258,7 +9321,7 @@
         <v>1097</v>
       </c>
       <c r="N11" s="7">
-        <v>1071758</v>
+        <v>1031353</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -9281,46 +9344,46 @@
         <v>338</v>
       </c>
       <c r="D12" s="7">
-        <v>301605</v>
+        <v>295692</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>644</v>
+        <v>665</v>
       </c>
       <c r="H12" s="7">
         <v>506</v>
       </c>
       <c r="I12" s="7">
-        <v>344916</v>
+        <v>322335</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>168</v>
+        <v>666</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="M12" s="7">
         <v>844</v>
       </c>
       <c r="N12" s="7">
-        <v>646521</v>
+        <v>618027</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9332,46 +9395,46 @@
         <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>20002</v>
+        <v>19759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>26443</v>
+        <v>24937</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>654</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>655</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>46446</v>
+        <v>44696</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>656</v>
+        <v>546</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,37 +9455,37 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1925</v>
+        <v>1857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>678</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>1925</v>
+        <v>1857</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9434,7 +9497,7 @@
         <v>359</v>
       </c>
       <c r="D15" s="7">
-        <v>321607</v>
+        <v>315451</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -9449,7 +9512,7 @@
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -9464,7 +9527,7 @@
         <v>895</v>
       </c>
       <c r="N15" s="7">
-        <v>694891</v>
+        <v>664579</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -9487,46 +9550,46 @@
         <v>253</v>
       </c>
       <c r="D16" s="7">
-        <v>277171</v>
+        <v>264562</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="H16" s="7">
         <v>533</v>
       </c>
       <c r="I16" s="7">
-        <v>383033</v>
+        <v>433147</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>667</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="M16" s="7">
         <v>786</v>
       </c>
       <c r="N16" s="7">
-        <v>660205</v>
+        <v>697709</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>670</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9538,46 +9601,46 @@
         <v>33</v>
       </c>
       <c r="D17" s="7">
-        <v>39225</v>
+        <v>42085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
       </c>
       <c r="I17" s="7">
-        <v>44129</v>
+        <v>41300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>676</v>
+        <v>125</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
       </c>
       <c r="N17" s="7">
-        <v>83355</v>
+        <v>83385</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>678</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>680</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9589,46 +9652,46 @@
         <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>3686</v>
+        <v>3566</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>257</v>
+        <v>492</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>1393</v>
+        <v>1271</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>593</v>
+        <v>511</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>660</v>
+        <v>697</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>429</v>
+        <v>698</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
       </c>
       <c r="N18" s="7">
-        <v>5079</v>
+        <v>4837</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9640,7 +9703,7 @@
         <v>291</v>
       </c>
       <c r="D19" s="7">
-        <v>320082</v>
+        <v>310213</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -9655,7 +9718,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -9670,7 +9733,7 @@
         <v>890</v>
       </c>
       <c r="N19" s="7">
-        <v>748639</v>
+        <v>785931</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -9693,46 +9756,46 @@
         <v>264</v>
       </c>
       <c r="D20" s="7">
-        <v>185965</v>
+        <v>168904</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="H20" s="7">
         <v>477</v>
       </c>
       <c r="I20" s="7">
-        <v>221715</v>
+        <v>199660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="M20" s="7">
         <v>741</v>
       </c>
       <c r="N20" s="7">
-        <v>407680</v>
+        <v>368564</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9744,46 +9807,46 @@
         <v>15</v>
       </c>
       <c r="D21" s="7">
-        <v>10783</v>
+        <v>9838</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
       </c>
       <c r="I21" s="7">
-        <v>9781</v>
+        <v>8614</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>695</v>
+        <v>655</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
       </c>
       <c r="N21" s="7">
-        <v>20564</v>
+        <v>18452</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>454</v>
+        <v>713</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>301</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9804,7 +9867,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9819,7 +9882,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9834,7 +9897,7 @@
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9846,7 +9909,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -9861,7 +9924,7 @@
         <v>491</v>
       </c>
       <c r="I23" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -9876,7 +9939,7 @@
         <v>770</v>
       </c>
       <c r="N23" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -9899,46 +9962,46 @@
         <v>296</v>
       </c>
       <c r="D24" s="7">
-        <v>214169</v>
+        <v>208558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>703</v>
+        <v>241</v>
       </c>
       <c r="H24" s="7">
         <v>331</v>
       </c>
       <c r="I24" s="7">
-        <v>194971</v>
+        <v>181702</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="M24" s="7">
         <v>627</v>
       </c>
       <c r="N24" s="7">
-        <v>409140</v>
+        <v>390260</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9950,46 +10013,46 @@
         <v>65</v>
       </c>
       <c r="D25" s="7">
-        <v>56012</v>
+        <v>54205</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="H25" s="7">
         <v>118</v>
       </c>
       <c r="I25" s="7">
-        <v>73446</v>
+        <v>68711</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="M25" s="7">
         <v>183</v>
       </c>
       <c r="N25" s="7">
-        <v>129458</v>
+        <v>122916</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10001,46 +10064,46 @@
         <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>6191</v>
+        <v>6074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
       </c>
       <c r="I26" s="7">
-        <v>7205</v>
+        <v>6643</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>552</v>
+        <v>738</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>514</v>
+        <v>739</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>740</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
       </c>
       <c r="N26" s="7">
-        <v>13396</v>
+        <v>12717</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10052,7 +10115,7 @@
         <v>369</v>
       </c>
       <c r="D27" s="7">
-        <v>276372</v>
+        <v>268837</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -10067,7 +10130,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>36</v>
@@ -10082,7 +10145,7 @@
         <v>829</v>
       </c>
       <c r="N27" s="7">
-        <v>551994</v>
+        <v>525893</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -10105,46 +10168,46 @@
         <v>525</v>
       </c>
       <c r="D28" s="7">
-        <v>540606</v>
+        <v>537817</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>725</v>
+        <v>458</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="H28" s="7">
         <v>855</v>
       </c>
       <c r="I28" s="7">
-        <v>712481</v>
+        <v>764048</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>596</v>
+        <v>343</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="M28" s="7">
         <v>1380</v>
       </c>
       <c r="N28" s="7">
-        <v>1253087</v>
+        <v>1301865</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10156,46 +10219,46 @@
         <v>60</v>
       </c>
       <c r="D29" s="7">
-        <v>70668</v>
+        <v>70263</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="H29" s="7">
         <v>88</v>
       </c>
       <c r="I29" s="7">
-        <v>77704</v>
+        <v>72164</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="M29" s="7">
         <v>148</v>
       </c>
       <c r="N29" s="7">
-        <v>148371</v>
+        <v>142427</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10207,46 +10270,46 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>14318</v>
+        <v>14066</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>427</v>
+        <v>695</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
       </c>
       <c r="I30" s="7">
-        <v>13858</v>
+        <v>12891</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>627</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
       </c>
       <c r="N30" s="7">
-        <v>28176</v>
+        <v>26957</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>745</v>
+        <v>491</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>693</v>
+        <v>763</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10258,7 +10321,7 @@
         <v>597</v>
       </c>
       <c r="D31" s="7">
-        <v>625591</v>
+        <v>622147</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>36</v>
@@ -10273,7 +10336,7 @@
         <v>959</v>
       </c>
       <c r="I31" s="7">
-        <v>804043</v>
+        <v>849103</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>36</v>
@@ -10288,7 +10351,7 @@
         <v>1556</v>
       </c>
       <c r="N31" s="7">
-        <v>1429634</v>
+        <v>1471249</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>36</v>
@@ -10311,46 +10374,46 @@
         <v>538</v>
       </c>
       <c r="D32" s="7">
-        <v>596385</v>
+        <v>707254</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>747</v>
+        <v>239</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>749</v>
+        <v>339</v>
       </c>
       <c r="H32" s="7">
         <v>879</v>
       </c>
       <c r="I32" s="7">
-        <v>708210</v>
+        <v>585569</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="M32" s="7">
         <v>1417</v>
       </c>
       <c r="N32" s="7">
-        <v>1304595</v>
+        <v>1292824</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10362,46 +10425,46 @@
         <v>214</v>
       </c>
       <c r="D33" s="7">
-        <v>251030</v>
+        <v>211295</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>352</v>
+        <v>772</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="H33" s="7">
         <v>176</v>
       </c>
       <c r="I33" s="7">
-        <v>153647</v>
+        <v>126819</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>47</v>
+        <v>301</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="M33" s="7">
         <v>390</v>
       </c>
       <c r="N33" s="7">
-        <v>404677</v>
+        <v>338115</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>716</v>
+        <v>606</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10413,46 +10476,46 @@
         <v>10</v>
       </c>
       <c r="D34" s="7">
-        <v>12013</v>
+        <v>10170</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>262</v>
+        <v>778</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>158</v>
+        <v>779</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>4294</v>
+        <v>3443</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>110</v>
+        <v>781</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>495</v>
+        <v>610</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>591</v>
+        <v>449</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
       </c>
       <c r="N34" s="7">
-        <v>16307</v>
+        <v>13614</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>424</v>
+        <v>782</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>763</v>
+        <v>492</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>764</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10464,7 +10527,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>36</v>
@@ -10479,7 +10542,7 @@
         <v>1059</v>
       </c>
       <c r="I35" s="7">
-        <v>866150</v>
+        <v>715832</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>36</v>
@@ -10494,7 +10557,7 @@
         <v>1821</v>
       </c>
       <c r="N35" s="7">
-        <v>1725578</v>
+        <v>1644553</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>36</v>
@@ -10517,46 +10580,46 @@
         <v>2870</v>
       </c>
       <c r="D36" s="7">
-        <v>2805166</v>
+        <v>2920513</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>765</v>
+        <v>264</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="H36" s="7">
         <v>4731</v>
       </c>
       <c r="I36" s="7">
-        <v>3303022</v>
+        <v>3208677</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="M36" s="7">
         <v>7601</v>
       </c>
       <c r="N36" s="7">
-        <v>6108188</v>
+        <v>6129190</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10568,46 +10631,46 @@
         <v>449</v>
       </c>
       <c r="D37" s="7">
-        <v>515170</v>
+        <v>476728</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>603</v>
+        <v>25</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>349</v>
+        <v>792</v>
       </c>
       <c r="H37" s="7">
         <v>557</v>
       </c>
       <c r="I37" s="7">
-        <v>445638</v>
+        <v>398747</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>775</v>
+        <v>28</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="M37" s="7">
         <v>1006</v>
       </c>
       <c r="N37" s="7">
-        <v>960809</v>
+        <v>875475</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>780</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10619,46 +10682,46 @@
         <v>50</v>
       </c>
       <c r="D38" s="7">
-        <v>57631</v>
+        <v>55289</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>205</v>
+        <v>446</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>781</v>
+        <v>284</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>782</v>
+        <v>711</v>
       </c>
       <c r="H38" s="7">
         <v>70</v>
       </c>
       <c r="I38" s="7">
-        <v>55810</v>
+        <v>51696</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>722</v>
+        <v>257</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>608</v>
+        <v>284</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>783</v>
+        <v>62</v>
       </c>
       <c r="M38" s="7">
         <v>120</v>
       </c>
       <c r="N38" s="7">
-        <v>113441</v>
+        <v>106985</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>383</v>
+        <v>589</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10670,7 +10733,7 @@
         <v>3369</v>
       </c>
       <c r="D39" s="7">
-        <v>3377967</v>
+        <v>3452530</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -10685,7 +10748,7 @@
         <v>5358</v>
       </c>
       <c r="I39" s="7">
-        <v>3804470</v>
+        <v>3659120</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>36</v>
@@ -10700,7 +10763,7 @@
         <v>8727</v>
       </c>
       <c r="N39" s="7">
-        <v>7182438</v>
+        <v>7111650</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
